--- a/mbs-EP-v.1.0.0/Excel Files/unitsdebug.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/unitsdebug.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD879FB-0441-4ABA-AECF-CF1D731A3137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B39D7-70BD-4809-84A4-D863219FCEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1080" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="1185" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>Mass</t>
   </si>
@@ -347,6 +347,12 @@
   </si>
   <si>
     <t>Connecting Rod</t>
+  </si>
+  <si>
+    <t>Units System</t>
+  </si>
+  <si>
+    <t>[SI/MKS or MMKS]</t>
   </si>
 </sst>
 </file>
@@ -658,6 +664,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,27 +686,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1106,16 +1112,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
-  <dimension ref="B2:S7"/>
+  <dimension ref="B2:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" customWidth="1"/>
     <col min="13" max="13" width="31.140625" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1189,8 +1195,19 @@
       </c>
       <c r="S7" s="13"/>
     </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="39" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:C4"/>
@@ -1207,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH15" sqref="AH15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,118 +1244,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="51" t="s">
+      <c r="A1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51" t="s">
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="50" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="51" t="s">
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="52" t="s">
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="50" t="s">
+      <c r="S2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="51" t="s">
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="53" t="s">
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51" t="s">
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51" t="s">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1392,8 +1409,8 @@
       <c r="Q3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="49"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="53"/>
       <c r="T3" s="17" t="s">
         <v>69</v>
       </c>
@@ -4976,12 +4993,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -4995,6 +5006,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5006,7 +5023,7 @@
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="M14" sqref="M13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5026,16 +5043,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5066,11 +5083,11 @@
       <c r="E2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5168,22 +5185,22 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -5208,21 +5225,21 @@
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -5304,19 +5321,19 @@
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -5341,16 +5358,16 @@
       <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -5428,19 +5445,19 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -5465,16 +5482,16 @@
       <c r="E16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -5511,19 +5528,19 @@
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -5548,16 +5565,16 @@
       <c r="E20" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58" t="s">
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
     </row>
     <row r="21" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
@@ -5596,19 +5613,19 @@
     </row>
     <row r="22" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
@@ -5644,14 +5661,14 @@
     </row>
     <row r="26" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -5725,12 +5742,12 @@
       <c r="X30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -5830,11 +5847,11 @@
       <c r="D36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
       <c r="J36" s="10"/>
@@ -5957,6 +5974,18 @@
     <row r="58" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="E36:G36"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="F20:H20"/>
@@ -5967,18 +5996,6 @@
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -6103,17 +6120,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
@@ -6136,11 +6153,11 @@
       <c r="E2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="28" t="s">
         <v>81</v>
       </c>
@@ -6167,17 +6184,17 @@
       <c r="N3" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
@@ -6195,11 +6212,11 @@
       <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
       <c r="I7" s="28" t="s">
         <v>82</v>
       </c>
@@ -6240,24 +6257,24 @@
       <c r="E12" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51" t="s">
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
       <c r="P12" s="37" t="s">
         <v>88</v>
       </c>

--- a/mbs-EP-v.1.0.0/Excel Files/unitsdebug.xlsx
+++ b/mbs-EP-v.1.0.0/Excel Files/unitsdebug.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.0\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B39D7-70BD-4809-84A4-D863219FCEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF4EABF-DB86-4C32-B25D-33EBE161E8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="1185" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12375" yWindow="11550" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
     <sheet name="Bodies" sheetId="1" r:id="rId2"/>
     <sheet name="Joints" sheetId="2" r:id="rId3"/>
     <sheet name="Joints_Drivers" sheetId="5" r:id="rId4"/>
-    <sheet name="Force_Elements" sheetId="6" r:id="rId5"/>
+    <sheet name="Force_Elements" sheetId="9" r:id="rId5"/>
+    <sheet name="PosProcessing" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="250">
   <si>
     <t>Mass</t>
   </si>
@@ -280,12 +281,6 @@
     <t>Damper</t>
   </si>
   <si>
-    <t>Spring Stiffness [N/mm]</t>
-  </si>
-  <si>
-    <t>Damping Coefficient</t>
-  </si>
-  <si>
     <t>Torsional Constant [Nmm/rad]</t>
   </si>
   <si>
@@ -319,12 +314,6 @@
     <t>Dyn</t>
   </si>
   <si>
-    <t>+g/-g [Nmm]</t>
-  </si>
-  <si>
-    <t>Inertia Moment [kg*mm^-2]</t>
-  </si>
-  <si>
     <t>Bodies ID</t>
   </si>
   <si>
@@ -334,18 +323,6 @@
     <t>Rot Ang [Rad]</t>
   </si>
   <si>
-    <t>Body Forces [N]</t>
-  </si>
-  <si>
-    <t>Initial Translational Vel [mm/s]</t>
-  </si>
-  <si>
-    <t>Initial Rotational Vel [rad/s]</t>
-  </si>
-  <si>
-    <t>Pure Body Torques [Nmm]</t>
-  </si>
-  <si>
     <t>Connecting Rod</t>
   </si>
   <si>
@@ -353,6 +330,514 @@
   </si>
   <si>
     <t>[SI/MKS or MMKS]</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>Body Forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Body Torques </t>
+  </si>
+  <si>
+    <t>Initial Translational Vel</t>
+  </si>
+  <si>
+    <t>Initial Rotational Vel</t>
+  </si>
+  <si>
+    <t>Inertia Moment</t>
+  </si>
+  <si>
+    <t>MKS Unit System</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Rad</t>
+  </si>
+  <si>
+    <t>Inertia</t>
+  </si>
+  <si>
+    <t>kg*mm^-2</t>
+  </si>
+  <si>
+    <t>mmks Unit System</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>kg*m^-2</t>
+  </si>
+  <si>
+    <t>+g/-g</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>m*s^-2</t>
+  </si>
+  <si>
+    <t>mm*s^-2</t>
+  </si>
+  <si>
+    <t>Linear - Spring Stiffness [N/mm]</t>
+  </si>
+  <si>
+    <t>Linear - Damping Coefficient</t>
+  </si>
+  <si>
+    <t>@(x) Non Linear Force Function (x-Displ)</t>
+  </si>
+  <si>
+    <t>Function 1</t>
+  </si>
+  <si>
+    <t>Function 2</t>
+  </si>
+  <si>
+    <t>Function 3</t>
+  </si>
+  <si>
+    <t>@(dx) Non Linear Force Function (dx-Vel)</t>
+  </si>
+  <si>
+    <t>Numb of Functions</t>
+  </si>
+  <si>
+    <t>Function  Interval</t>
+  </si>
+  <si>
+    <t>Function Interval</t>
+  </si>
+  <si>
+    <t>The Non Linear Force Function can be divided into three functions with different intervals. 
+When Defining the Interval the Matlab will assume the values as:
+Function 1 from - inf to first interval value ( and = )
+Function 2 between the two defined values
+Function 3 from the second value (and = ) to +inf
+It is possible to define only 1 or 2 functions.
+With 1 Function matlab will ignore the interval
+with 2 Functions matlab will use only the first value and use it to define the Boundary between the 2 functions.</t>
+  </si>
+  <si>
+    <t>Post Processing</t>
+  </si>
+  <si>
+    <t>[Yes or No]</t>
+  </si>
+  <si>
+    <t>Spherical - Revolute (Comp Joint)</t>
+  </si>
+  <si>
+    <t>sj(REV axis) global</t>
+  </si>
+  <si>
+    <t>Translation - Revolute (Comp Joint)</t>
+  </si>
+  <si>
+    <t>si (REV axis) global</t>
+  </si>
+  <si>
+    <t>sj (TRA axis) global</t>
+  </si>
+  <si>
+    <t>Joint Types</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>MATLAB ID</t>
+  </si>
+  <si>
+    <t>SPH-SPH</t>
+  </si>
+  <si>
+    <t>CompSpherical</t>
+  </si>
+  <si>
+    <t>SphRev</t>
+  </si>
+  <si>
+    <t>TraRev</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Graphics (Select the Desired Graphics)</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Bodies</t>
+  </si>
+  <si>
+    <t>Center of Mass</t>
+  </si>
+  <si>
+    <t>Translational Velocity</t>
+  </si>
+  <si>
+    <t>Angular Velocity</t>
+  </si>
+  <si>
+    <t>Angular Acceleration</t>
+  </si>
+  <si>
+    <t>Translational Acceleration</t>
+  </si>
+  <si>
+    <t>[Enumerate the Bodies Numbers and plots CoM values]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Points 
+[Enumerate the Points to plot Points values - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use the order from the Joints Tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Force Actuator (Imposes a force without kinematic constraints)</t>
+  </si>
+  <si>
+    <t>Force Elements Types</t>
+  </si>
+  <si>
+    <t>Translational Spring</t>
+  </si>
+  <si>
+    <t>Translational Damper</t>
+  </si>
+  <si>
+    <t>Rotational Spring</t>
+  </si>
+  <si>
+    <t>Force Actuator</t>
+  </si>
+  <si>
+    <t>Program Caption</t>
+  </si>
+  <si>
+    <t>Actuator</t>
+  </si>
+  <si>
+    <t>Tspring</t>
+  </si>
+  <si>
+    <t>spj</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @(t) Function</t>
+  </si>
+  <si>
+    <t>Force Element</t>
+  </si>
+  <si>
+    <t>Suspension Point</t>
+  </si>
+  <si>
+    <t>Rack - Tie Rod FL</t>
+  </si>
+  <si>
+    <t>Rack - Tie Rod FR</t>
+  </si>
+  <si>
+    <t>RTRFL</t>
+  </si>
+  <si>
+    <t>RTRFR</t>
+  </si>
+  <si>
+    <t>Tie Rod Upright FR</t>
+  </si>
+  <si>
+    <t>Tie Rod Upright FL</t>
+  </si>
+  <si>
+    <t>TRUFL</t>
+  </si>
+  <si>
+    <t>TRUFR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright FR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright FL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright RR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Upright RL</t>
+  </si>
+  <si>
+    <t>UAUFR</t>
+  </si>
+  <si>
+    <t>UAUFL</t>
+  </si>
+  <si>
+    <t>UAURR</t>
+  </si>
+  <si>
+    <t>UAURL</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright FR</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright FL</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright RR</t>
+  </si>
+  <si>
+    <t>Lower A-Arm Upright RL</t>
+  </si>
+  <si>
+    <t>LAUFR</t>
+  </si>
+  <si>
+    <t>LAUFL</t>
+  </si>
+  <si>
+    <t>LAURR</t>
+  </si>
+  <si>
+    <t>LAURL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push FR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push FL</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push RR</t>
+  </si>
+  <si>
+    <t>Upper A-Arm Push RL</t>
+  </si>
+  <si>
+    <t>UAPFR</t>
+  </si>
+  <si>
+    <t>UAPFL</t>
+  </si>
+  <si>
+    <t>UAPRR</t>
+  </si>
+  <si>
+    <t>UAPRL</t>
+  </si>
+  <si>
+    <t>Upright Tyre FR</t>
+  </si>
+  <si>
+    <t>Upright Tyre FL</t>
+  </si>
+  <si>
+    <t>Upright Tyre RR</t>
+  </si>
+  <si>
+    <t>Upright Tyre RL</t>
+  </si>
+  <si>
+    <t>UTFR</t>
+  </si>
+  <si>
+    <t>UTFL</t>
+  </si>
+  <si>
+    <t>UTRR</t>
+  </si>
+  <si>
+    <t>UTRL</t>
+  </si>
+  <si>
+    <t>PBFR</t>
+  </si>
+  <si>
+    <t>Push Bellcrank FR</t>
+  </si>
+  <si>
+    <t>PBFL</t>
+  </si>
+  <si>
+    <t>PBRR</t>
+  </si>
+  <si>
+    <t>PBRL</t>
+  </si>
+  <si>
+    <t>Push Bellcrank FL</t>
+  </si>
+  <si>
+    <t>Push Bellcrank RR</t>
+  </si>
+  <si>
+    <t>Push Bellcrank RL</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover FL</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover FR</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover RR</t>
+  </si>
+  <si>
+    <t>Bellcrank Coilover RL</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage FR</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage FL</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage RR</t>
+  </si>
+  <si>
+    <t>Bellcrank ARB Linkage RL</t>
+  </si>
+  <si>
+    <t>BCFR</t>
+  </si>
+  <si>
+    <t>BCFL</t>
+  </si>
+  <si>
+    <t>BCRR</t>
+  </si>
+  <si>
+    <t>BCRL</t>
+  </si>
+  <si>
+    <t>BLFR</t>
+  </si>
+  <si>
+    <t>BLFL</t>
+  </si>
+  <si>
+    <t>BLRR</t>
+  </si>
+  <si>
+    <t>BLRL</t>
+  </si>
+  <si>
+    <t>Linkage ARB FR</t>
+  </si>
+  <si>
+    <t>Linkage ARB FL</t>
+  </si>
+  <si>
+    <t>Linkage ARB RR</t>
+  </si>
+  <si>
+    <t>Linkage ARB RL</t>
+  </si>
+  <si>
+    <t>LARBFR</t>
+  </si>
+  <si>
+    <t>LARBFL</t>
+  </si>
+  <si>
+    <t>LARBRR</t>
+  </si>
+  <si>
+    <t>LARBRL</t>
+  </si>
+  <si>
+    <t>Suspension Points</t>
+  </si>
+  <si>
+    <t>Line of the Point</t>
+  </si>
+  <si>
+    <t>Line/Number Point</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Take the Line of Point from the first column of the Joints sheet.
+The Program reads the Points by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and this should be respected to guarantee reliable results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Important Note</t>
+  </si>
+  <si>
+    <t>MKS</t>
   </si>
 </sst>
 </file>
@@ -382,22 +867,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -413,8 +885,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,12 +908,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -446,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -467,15 +944,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -533,11 +1001,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,7 +1131,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,7 +1141,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,126 +1159,269 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -712,23 +1430,65 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,6 +1573,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>924832</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A21537-C858-258D-47C1-8AACE29B3FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505701" y="4200525"/>
+          <a:ext cx="3658506" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,111 +1921,939 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
-  <dimension ref="B2:S8"/>
+  <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" customWidth="1"/>
+    <col min="16" max="16" width="23.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+      <c r="J2" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="30">
+      <c r="C3" s="67"/>
+      <c r="D3" s="51">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="42" t="s">
+      <c r="J3" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="75"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="30">
+      <c r="C4" s="67"/>
+      <c r="D4" s="51">
         <v>0.5</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="13"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="J4" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="N4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4" s="89"/>
+      <c r="P4" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="C5" s="67"/>
+      <c r="D5" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="13"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="J5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="77"/>
+      <c r="M5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="89"/>
+      <c r="P5" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="77"/>
+      <c r="M6" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6" s="89"/>
+      <c r="P6" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="S6" s="13"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="13"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="77"/>
+      <c r="M7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="89"/>
+      <c r="P7" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" s="61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="77"/>
+      <c r="M8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="89"/>
+      <c r="P8" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="77"/>
+      <c r="M9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="89"/>
+      <c r="P9" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="77"/>
+      <c r="M10" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="89"/>
+      <c r="P10" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" s="61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="54"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="N11" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="89"/>
+      <c r="P11" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q11" s="61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="O12" s="89"/>
+      <c r="P12" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q12" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="65"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="89"/>
+      <c r="P13" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q13" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="89"/>
+      <c r="P14" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="65"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="J15" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="39" t="s">
+      <c r="K15" s="75"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="89"/>
+      <c r="P15" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q15" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="J16" s="45" t="s">
         <v>105</v>
       </c>
+      <c r="K16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="77"/>
+      <c r="M16" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" s="89"/>
+      <c r="P16" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="65"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="J17" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="L17" s="77"/>
+      <c r="M17" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="N17" s="75"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q17" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="91"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="J18" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="77"/>
+      <c r="M18" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="O18" s="89"/>
+      <c r="P18" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q18" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="91"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="J19" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="77"/>
+      <c r="M19" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="O19" s="89"/>
+      <c r="P19" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q19" s="61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="92"/>
+      <c r="H20" s="49"/>
+      <c r="J20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="77"/>
+      <c r="M20" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="N20" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" s="89"/>
+      <c r="P20" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="49"/>
+      <c r="J21" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="L21" s="77"/>
+      <c r="M21" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="89"/>
+      <c r="P21" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="49"/>
+      <c r="J22" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="78"/>
+      <c r="M22" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="N22" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" s="89"/>
+      <c r="P22" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q22" s="61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="49"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q23" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="49"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q24" s="62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="49"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q25" s="62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="49"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="83"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="83"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q26" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="97"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="49"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="83"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="89"/>
+      <c r="P27" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q27" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q28" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J29" s="82"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q29" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J30" s="82"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="89"/>
+      <c r="P30" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J31" s="82"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q31" s="62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q32" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J33" s="82"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="83"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="89"/>
+      <c r="P33" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q33" s="62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J34" s="82"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q34" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J35" s="82"/>
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="89"/>
+      <c r="P35" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="82"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="83"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q36" s="62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J37" s="82"/>
+      <c r="K37" s="83"/>
+      <c r="L37" s="83"/>
+      <c r="M37" s="83"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q37" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J38" s="85"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="P39" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q39" s="62" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="28">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F20:G27"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:E27"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F13:H19"/>
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1225,7 +2862,7 @@
   <dimension ref="A1:AK197"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,678 +2881,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="52"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="48" t="s">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48" t="s">
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48" t="s">
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54" t="s">
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="48" t="s">
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="S2" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="54" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="103" t="s">
+        <v>103</v>
+      </c>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="92"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA3" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="63">
+        <v>0</v>
+      </c>
+      <c r="D4" s="63">
+        <v>0</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
+      <c r="F4" s="63">
+        <v>0</v>
+      </c>
+      <c r="G4" s="63">
+        <v>0</v>
+      </c>
+      <c r="H4" s="63">
+        <v>0</v>
+      </c>
+      <c r="I4" s="63">
+        <v>0</v>
+      </c>
+      <c r="J4" s="63">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <v>0</v>
+      </c>
+      <c r="L4" s="63">
+        <v>0</v>
+      </c>
+      <c r="M4" s="63">
+        <v>0</v>
+      </c>
+      <c r="N4" s="63">
+        <v>0</v>
+      </c>
+      <c r="O4" s="63">
+        <v>0</v>
+      </c>
+      <c r="P4" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="63">
+        <v>0</v>
+      </c>
+      <c r="R4" s="63">
+        <v>0</v>
+      </c>
+      <c r="S4" s="63">
+        <v>0</v>
+      </c>
+      <c r="T4" s="63">
+        <v>0</v>
+      </c>
+      <c r="U4" s="63">
+        <v>0</v>
+      </c>
+      <c r="V4" s="63">
+        <v>0</v>
+      </c>
+      <c r="W4" s="63">
+        <v>0</v>
+      </c>
+      <c r="X4" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="63">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="63">
+        <v>-0.5</v>
+      </c>
+      <c r="E5" s="63">
+        <v>0</v>
+      </c>
+      <c r="F5" s="63">
+        <v>0</v>
+      </c>
+      <c r="G5" s="63">
+        <v>0</v>
+      </c>
+      <c r="H5" s="63">
+        <v>0</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <v>0</v>
+      </c>
+      <c r="L5" s="63">
+        <v>0</v>
+      </c>
+      <c r="M5" s="63">
+        <v>0</v>
+      </c>
+      <c r="N5" s="63">
+        <v>0</v>
+      </c>
+      <c r="O5" s="63">
+        <v>0</v>
+      </c>
+      <c r="P5" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>1</v>
+      </c>
+      <c r="R5" s="63">
+        <v>-0.78539800000000004</v>
+      </c>
+      <c r="S5" s="63">
+        <v>118.845</v>
+      </c>
+      <c r="T5" s="63">
+        <v>23.067</v>
+      </c>
+      <c r="U5" s="63">
+        <v>0.24387</v>
+      </c>
+      <c r="V5" s="63">
+        <v>23.212</v>
+      </c>
+      <c r="W5" s="63">
+        <v>0</v>
+      </c>
+      <c r="X5" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="63">
+        <v>5</v>
+      </c>
+      <c r="AI5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="63">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="C6" s="17">
+        <v>2</v>
+      </c>
+      <c r="D6" s="63">
+        <v>-0.5</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0</v>
+      </c>
+      <c r="F6" s="63">
+        <v>0</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>0</v>
+      </c>
+      <c r="I6" s="63">
+        <v>0</v>
+      </c>
+      <c r="J6" s="63">
+        <v>0</v>
+      </c>
+      <c r="K6" s="63">
+        <v>0</v>
+      </c>
+      <c r="L6" s="63">
+        <v>0</v>
+      </c>
+      <c r="M6" s="63">
+        <v>0</v>
+      </c>
+      <c r="N6" s="63">
+        <v>0</v>
+      </c>
+      <c r="O6" s="63">
+        <v>0</v>
+      </c>
+      <c r="P6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="63">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="R6" s="63">
+        <v>0.46364699999999998</v>
+      </c>
+      <c r="S6" s="63">
+        <v>469.77888999999999</v>
+      </c>
+      <c r="T6" s="63">
+        <v>2.4099499999999998</v>
+      </c>
+      <c r="U6" s="63">
+        <v>227.95405</v>
+      </c>
+      <c r="V6" s="63">
+        <v>229.38529</v>
+      </c>
+      <c r="W6" s="63">
+        <v>0</v>
+      </c>
+      <c r="X6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="63">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA3" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB3" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>1</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="17">
-        <v>0</v>
-      </c>
-      <c r="D4" s="17">
-        <v>0</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0</v>
-      </c>
-      <c r="F4" s="40">
-        <v>0</v>
-      </c>
-      <c r="G4" s="40">
-        <v>0</v>
-      </c>
-      <c r="H4" s="40">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40">
-        <v>0</v>
-      </c>
-      <c r="J4" s="40">
-        <v>0</v>
-      </c>
-      <c r="K4" s="40">
-        <v>0</v>
-      </c>
-      <c r="L4" s="40">
-        <v>0</v>
-      </c>
-      <c r="M4" s="40">
-        <v>0</v>
-      </c>
-      <c r="N4" s="40">
-        <v>0</v>
-      </c>
-      <c r="O4" s="40">
-        <v>0</v>
-      </c>
-      <c r="P4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="40">
-        <v>0</v>
-      </c>
-      <c r="R4" s="40">
-        <v>0</v>
-      </c>
-      <c r="S4" s="17">
-        <v>0</v>
-      </c>
-      <c r="T4" s="17">
-        <v>0</v>
-      </c>
-      <c r="U4" s="17">
-        <v>0</v>
-      </c>
-      <c r="V4" s="17">
-        <v>0</v>
-      </c>
-      <c r="W4" s="40">
-        <v>0</v>
-      </c>
-      <c r="X4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="17">
-        <v>-0.5</v>
-      </c>
-      <c r="E5" s="24">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="40">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40">
-        <v>0</v>
-      </c>
-      <c r="P5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="40">
-        <v>1</v>
-      </c>
-      <c r="R5" s="40">
-        <v>-0.78539800000000004</v>
-      </c>
-      <c r="S5" s="17">
-        <v>118.845</v>
-      </c>
-      <c r="T5" s="17">
-        <v>23.067</v>
-      </c>
-      <c r="U5" s="17">
-        <v>0.24387</v>
-      </c>
-      <c r="V5" s="17">
-        <v>23.212</v>
-      </c>
-      <c r="W5" s="40">
-        <v>0</v>
-      </c>
-      <c r="X5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="40">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="18">
-        <v>2</v>
-      </c>
-      <c r="D6" s="17">
-        <v>-0.5</v>
-      </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="40">
-        <v>0</v>
-      </c>
-      <c r="G6" s="40">
-        <v>0</v>
-      </c>
-      <c r="H6" s="40">
-        <v>0</v>
-      </c>
-      <c r="I6" s="40">
-        <v>0</v>
-      </c>
-      <c r="J6" s="40">
-        <v>0</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
-      <c r="O6" s="40">
-        <v>0</v>
-      </c>
-      <c r="P6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="40">
-        <v>1</v>
-      </c>
-      <c r="R6" s="40">
-        <v>0.46364699999999998</v>
-      </c>
-      <c r="S6" s="17">
-        <v>469.77888999999999</v>
-      </c>
-      <c r="T6" s="17">
-        <v>2.4099499999999998</v>
-      </c>
-      <c r="U6" s="17">
-        <v>227.95405</v>
-      </c>
-      <c r="V6" s="41">
-        <v>229.38529</v>
-      </c>
-      <c r="W6" s="40">
-        <v>0</v>
-      </c>
-      <c r="X6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>4</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="63">
         <v>3.5</v>
       </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="40">
-        <v>0</v>
-      </c>
-      <c r="G7" s="40">
-        <v>0</v>
-      </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
-        <v>0</v>
-      </c>
-      <c r="P7" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="40">
-        <v>0</v>
-      </c>
-      <c r="R7" s="40">
-        <v>0</v>
-      </c>
-      <c r="S7" s="17">
+      <c r="D7" s="63">
+        <v>0</v>
+      </c>
+      <c r="E7" s="63">
+        <v>0</v>
+      </c>
+      <c r="F7" s="63">
+        <v>0</v>
+      </c>
+      <c r="G7" s="63">
+        <v>0</v>
+      </c>
+      <c r="H7" s="63">
+        <v>0</v>
+      </c>
+      <c r="I7" s="63">
+        <v>0</v>
+      </c>
+      <c r="J7" s="63">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63">
+        <v>0</v>
+      </c>
+      <c r="L7" s="63">
+        <v>0</v>
+      </c>
+      <c r="M7" s="63">
+        <v>0</v>
+      </c>
+      <c r="N7" s="63">
+        <v>0</v>
+      </c>
+      <c r="O7" s="63">
+        <v>0</v>
+      </c>
+      <c r="P7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="63">
+        <v>0</v>
+      </c>
+      <c r="R7" s="63">
+        <v>0</v>
+      </c>
+      <c r="S7" s="63">
         <v>42.018300000000004</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="63">
         <f>4.3111*10^-2</f>
         <v>4.3110999999999997E-2</v>
       </c>
-      <c r="U7" s="17">
+      <c r="U7" s="63">
         <v>4.0777000000000001</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="63">
         <v>4.1033600000000003</v>
       </c>
-      <c r="W7" s="40">
-        <v>0</v>
-      </c>
-      <c r="X7" s="40">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="40">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="40">
+      <c r="W7" s="63">
+        <v>0</v>
+      </c>
+      <c r="X7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="63">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="63">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2162,7 +3799,7 @@
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="14"/>
+      <c r="O21" s="13"/>
       <c r="P21" s="3"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -2180,7 +3817,7 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="14"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="3"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -2198,7 +3835,7 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="13"/>
       <c r="P23" s="3"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2216,7 +3853,7 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="14"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2234,7 +3871,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="14"/>
+      <c r="O25" s="13"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2252,7 +3889,7 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="14"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2270,7 +3907,7 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="14"/>
+      <c r="O27" s="13"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2288,7 +3925,7 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4993,6 +6630,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -5006,12 +6649,6 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5020,15 +6657,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M13:N14"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
@@ -5043,16 +6680,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -5068,26 +6705,26 @@
       <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -5106,30 +6743,30 @@
       <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="47">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="47">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="47">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="47">
         <v>-1</v>
       </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="H3" s="47">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -5139,20 +6776,17 @@
       <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
@@ -5161,21 +6795,20 @@
       <c r="W4" s="10"/>
       <c r="X4" s="10"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+    <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -5184,23 +6817,35 @@
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="109"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="109"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
@@ -5210,36 +6855,20 @@
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
@@ -5248,49 +6877,23 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="14">
-        <v>3</v>
-      </c>
-      <c r="E8" s="14">
-        <v>4</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19">
-        <v>3</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21">
-        <v>3</v>
-      </c>
-      <c r="M8" s="21">
-        <v>1</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0</v>
-      </c>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -5300,18 +6903,36 @@
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="9"/>
+      <c r="A9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -5320,20 +6941,49 @@
       <c r="W9" s="10"/>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="47">
+        <v>3</v>
+      </c>
+      <c r="E10" s="47">
+        <v>4</v>
+      </c>
+      <c r="F10" s="47">
+        <v>3</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="18">
+        <v>3</v>
+      </c>
+      <c r="M10" s="18">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
       <c r="R10" s="10"/>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -5343,31 +6993,18 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="9"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -5376,40 +7013,20 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0</v>
-      </c>
-      <c r="K12" s="14">
-        <v>1</v>
-      </c>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -5418,24 +7035,74 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
     </row>
-    <row r="13" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="A14" s="47">
+        <v>2</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="47">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47">
+        <v>2</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0</v>
+      </c>
+      <c r="G14" s="47">
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0</v>
+      </c>
+      <c r="I14" s="47">
+        <v>0</v>
+      </c>
+      <c r="J14" s="47">
+        <v>0</v>
+      </c>
+      <c r="K14" s="47">
+        <v>1</v>
+      </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
@@ -5444,565 +7111,682 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
     </row>
-    <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="57" t="s">
+    <row r="15" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-    </row>
-    <row r="16" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+    </row>
+    <row r="18" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F18" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="56" t="s">
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-    </row>
-    <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-    </row>
-    <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="57" t="s">
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+    </row>
+    <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-    </row>
-    <row r="20" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+    </row>
+    <row r="22" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F22" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="56" t="s">
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-    </row>
-    <row r="21" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+    </row>
+    <row r="23" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D23" s="18">
         <v>4</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E23" s="18">
         <v>1</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F23" s="18">
         <v>4</v>
       </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19">
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:24" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-    </row>
-    <row r="24" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="105" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="105"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+    </row>
+    <row r="26" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C26" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D26" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E26" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="59" t="s">
+      <c r="F26" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="59" t="s">
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-    </row>
-    <row r="25" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+    </row>
+    <row r="27" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="105"/>
+    </row>
+    <row r="30" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="109"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="109"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+    </row>
+    <row r="31" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-    </row>
-    <row r="28" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-    </row>
-    <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-    </row>
-    <row r="32" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+    </row>
+    <row r="34" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="12"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="105"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+    </row>
+    <row r="38" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
-        <v>1</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1</v>
-      </c>
-      <c r="E37" s="14">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14">
-        <v>0</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
-        <v>2</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="14">
-        <v>2</v>
-      </c>
-      <c r="E38" s="14">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="14">
-        <v>0</v>
-      </c>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="107" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="47">
+        <v>1</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+      <c r="E43" s="47">
+        <v>0</v>
+      </c>
+      <c r="F43" s="47">
+        <v>0</v>
+      </c>
+      <c r="G43" s="47">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="47">
+        <v>2</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="47">
+        <v>2</v>
+      </c>
+      <c r="E44" s="47">
+        <v>1</v>
+      </c>
+      <c r="F44" s="47">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="47">
+        <v>0</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="47">
         <v>3</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B45" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C45" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D45" s="47">
         <v>3</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E45" s="47">
         <v>3</v>
       </c>
-      <c r="F39" s="14">
-        <v>0</v>
-      </c>
-      <c r="G39" s="14">
-        <v>0</v>
-      </c>
-      <c r="H39"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="14">
+      <c r="F45" s="47">
+        <v>0</v>
+      </c>
+      <c r="G45" s="47">
+        <v>0</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="47">
         <v>4</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B46" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C46" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D46" s="47">
         <v>4</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E46" s="47">
         <v>4</v>
       </c>
-      <c r="F40" s="14">
-        <v>0</v>
-      </c>
-      <c r="G40" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M42" t="s">
+      <c r="F46" s="47">
+        <v>0</v>
+      </c>
+      <c r="G46" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-    </row>
-    <row r="58" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="64" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="31">
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A25:N25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46:B1032 B37:B40" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:B1038 B43:B46" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Spherical,Universal,Revolute,Cylindrical,Translation,Simple,Driver,Ground,Point"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6014,10 +7798,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,61 +7815,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="117" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="26" t="s">
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I4" s="27"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6093,7 +7882,7 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{2127DDA1-6D8E-4B00-8D96-D683E7741146}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{C29CF91F-D32A-47CE-8C1A-1D1B33C14C9E}">
       <formula1>"Spherical,Universal,Revolute,Translation,Cylindrical,Simple,Ground,Driver"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6103,11 +7892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1356001A-570B-4774-AE32-331534C6A696}">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F55610B-D925-4735-AE3D-EBBD0AD81ACC}">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6115,181 +7904,1055 @@
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="16" max="16" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="123" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="U2" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+    </row>
+    <row r="3" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="28" t="s">
+      <c r="F3" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="130"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="U4" s="126"/>
+      <c r="V4" s="126"/>
+      <c r="W4" s="126"/>
+      <c r="X4" s="126"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="126"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L5" s="18"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+    </row>
+    <row r="7" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="105"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="131" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="133"/>
+      <c r="U8" s="126"/>
+      <c r="V8" s="126"/>
+      <c r="W8" s="126"/>
+      <c r="X8" s="126"/>
+      <c r="Y8" s="126"/>
+      <c r="Z8" s="126"/>
+    </row>
+    <row r="9" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="128"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="P9" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="127" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="129"/>
+      <c r="U9" s="126"/>
+      <c r="V9" s="126"/>
+      <c r="W9" s="126"/>
+      <c r="X9" s="126"/>
+      <c r="Y9" s="126"/>
+      <c r="Z9" s="126"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="25"/>
+      <c r="U10" s="126"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="126"/>
+      <c r="X10" s="126"/>
+      <c r="Y10" s="126"/>
+      <c r="Z10" s="126"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="U11" s="126"/>
+      <c r="V11" s="126"/>
+      <c r="W11" s="126"/>
+      <c r="X11" s="126"/>
+      <c r="Y11" s="126"/>
+      <c r="Z11" s="126"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U12" s="126"/>
+      <c r="V12" s="126"/>
+      <c r="W12" s="126"/>
+      <c r="X12" s="126"/>
+      <c r="Y12" s="126"/>
+      <c r="Z12" s="126"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="111" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="U13" s="126"/>
+      <c r="V13" s="126"/>
+      <c r="W13" s="126"/>
+      <c r="X13" s="126"/>
+      <c r="Y13" s="126"/>
+      <c r="Z13" s="126"/>
+    </row>
+    <row r="14" spans="1:26" s="32" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-    </row>
-    <row r="6" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="J14" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="111" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="112"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="112"/>
+      <c r="L17" s="112"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D18" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E18" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="64"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="37" t="s">
-        <v>88</v>
-      </c>
+      <c r="F18" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A6:I6"/>
+  <mergeCells count="20">
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="U2:Z13"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01937180-03B7-42C6-AC1A-CA356BC8C70D}">
+  <dimension ref="A1:L44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="F1" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="70"/>
+      <c r="I1" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="126" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="F3" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="F4" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="126"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="F5" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="F8" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="F10" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="F11" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="F12" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="F13" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="F14" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="F15" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="F16" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="F17" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="F19" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="F20" s="60" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="F21" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="F22" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="F23" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="F24" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="F25" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="F26" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="F27" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="F28" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="F29" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="62" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="F30" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="F31" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="F32" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="F33" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="F34" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="F35" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G35" s="62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="F36" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="F37" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="62" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="F38" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I2:L6"/>
+    <mergeCell ref="I1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>